--- a/Excel reader/First Contest/B7.xlsx
+++ b/Excel reader/First Contest/B7.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Hackerearth Username</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>Enrolment</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Score</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Problems Solved</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Plagiarism Status</t>
         </is>
@@ -446,16 +451,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>soham128</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>181b218</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -464,16 +474,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>surbhi_5</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>181b224</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -482,16 +497,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>sai3121</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>181b178</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -500,16 +520,21 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>shubham6493</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>181b209</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -518,16 +543,21 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>shubhanshunigam02</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>181b212</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -536,16 +566,21 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>shrey115</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>181b205</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -554,16 +589,21 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>sidhi8</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>181b204</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>3</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -572,16 +612,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>sharif13</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>181b193</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Disqualified due to Plagiarism</t>
         </is>
@@ -590,34 +635,46 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>stuti81</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>181b220</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Disqualified due to Tab switches</t>
         </is>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>subratasawa123</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>181b221</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -626,16 +683,21 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>shivani1274</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>181b200</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -644,16 +706,21 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>shivesh67</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>181b202</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>-</t>
         </is>
@@ -662,16 +729,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>shrutikhare1808</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>181b207</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>6</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>-</t>
         </is>
